--- a/root_node/no_exact/datos_verificacion_relu_1como2.xlsx
+++ b/root_node/no_exact/datos_verificacion_relu_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +544,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -597,6 +609,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +674,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -715,6 +739,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -774,6 +804,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -833,6 +869,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -892,6 +934,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -951,6 +999,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1010,6 +1064,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1069,6 +1129,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1124,6 +1190,1008 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02701663970947266</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0002362796868306498</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.02352738380432129</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0002362796868306498</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.02161145210266113</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0002381194563821447</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0855712890625</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.602548122040126</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.08552789688110352</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.602548122039953</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1412413120269775</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.05795021401518963</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04354047775268555</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.081565640757229</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0507965087890625</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.081565640757271</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.1152873039245605</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.06126634167342894</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1268272399902344</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.58603331187195</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1268482208251953</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12.58603331187208</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2549307346343994</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9.282726147428855</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02575898170471191</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0260472297668457</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.005534887313842773</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02918124198913574</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7211505656729147</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.03307247161865234</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.222544939825229</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.02736186981201172</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.03672532924224817</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5164732933044434</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.302385457257893</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6667206287384033</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6037682466969142</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2341649532318115</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.08443250382500005</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>15.29802417755127</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>139.5059799966421</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>9.88988471031189</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>139.4474832599437</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>27.81556439399719</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>208.9417837438022</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3620264530181885</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.249670344551595</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.08585190773010254</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12.72014499586319</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6865189075469971</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6178730266328434</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04514336585998535</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>69.21976644760659</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8049006462097168</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>14.84722719233409</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.304697275161743</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.6882250172513223</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9193241596221924</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12.32039161497972</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.6317603588104248</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.60556079345764</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.2413480281829834</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.01969017505983188</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2.431046724319458</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>70.13275337146688</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>2.074423789978027</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70.25457400507099</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.195351600646973</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>26.46107748641094</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>totalnodelimit</t>
         </is>

--- a/root_node/no_exact/datos_verificacion_relu_1como2.xlsx
+++ b/root_node/no_exact/datos_verificacion_relu_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2197,6 +2197,570 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02503228187561035</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0002362796868306498</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3317053318023682</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1804423004206797</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06119036674499512</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6415459342686748</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1231822967529297</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.21182733671579</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02335691452026367</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02643132209777832</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7211505656729308</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5251650810241699</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1539990077408021</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>20.46412301063538</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>144.9934242899254</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5106053352355957</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.254524151098925</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2.266441106796265</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>13.54211845221049</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.79736328125</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.670755937914818</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1.33831787109375</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>68.78964949759879</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/root_node/no_exact/datos_verificacion_relu_1como2.xlsx
+++ b/root_node/no_exact/datos_verificacion_relu_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,8 @@
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +552,8 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -615,6 +619,8 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +686,8 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -745,6 +753,8 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -810,6 +820,8 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -875,6 +887,8 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -940,6 +954,8 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1005,6 +1021,8 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1070,6 +1088,8 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1135,6 +1155,8 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1200,6 +1222,8 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1283,6 +1307,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1366,6 +1392,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1449,6 +1477,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1532,6 +1562,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1615,6 +1647,8 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1698,6 +1732,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1817,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1864,6 +1902,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1947,6 +1987,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2030,6 +2072,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2113,6 +2157,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2196,6 +2242,8 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2243,6 +2291,8 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2290,6 +2340,8 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2337,6 +2389,8 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2384,6 +2438,8 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2431,6 +2487,8 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2478,6 +2536,8 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2525,6 +2585,8 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2572,6 +2634,8 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2619,6 +2683,8 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2666,6 +2732,8 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2713,6 +2781,8 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2760,6 +2830,1148 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0253908634185791</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0002362796868306498</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.02353405952453613</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0002362796868306498</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0.02260303497314453</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0003247701004379089</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>0.02191162109375</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.0002362796868306498</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.08448171615600586</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.602548122040126</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0851294994354248</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.602548122039953</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>0.1237831115722656</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.2778102492950439</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>0.3342056274414062</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.1804423004206797</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0435338020324707</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.081565640757229</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.05038690567016602</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5.081565640757271</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>0.1289961338043213</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0736261952482488</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>0.06142735481262207</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6415459342686748</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.126720666885376</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12.58603331187195</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.1267836093902588</v>
+      </c>
+      <c r="K40" t="n">
+        <v>12.58603331187208</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>0.08765983581542969</v>
+      </c>
+      <c r="P40" t="n">
+        <v>9.475327123958762</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>0.1242797374725342</v>
+      </c>
+      <c r="U40" t="n">
+        <v>13.21182733671579</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02588987350463867</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.02601337432861328</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>0.005524873733520508</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>0.02338433265686035</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02955460548400879</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7211505656729147</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0.03319525718688965</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.222544939825229</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>0.02879810333251953</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7244307741253897</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>0.02658486366271973</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.7211505656729308</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5229384899139404</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.302385457257893</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6713168621063232</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6037682466969142</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0612037181854248</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.024855705967996</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>0.5315370559692383</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.1539990077408021</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>15.36279654502869</v>
+      </c>
+      <c r="F44" t="n">
+        <v>139.5059799966421</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>9.800613641738892</v>
+      </c>
+      <c r="K44" t="n">
+        <v>139.4474832599437</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>2.940287828445435</v>
+      </c>
+      <c r="P44" t="n">
+        <v>162.7130387568281</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>20.51825094223022</v>
+      </c>
+      <c r="U44" t="n">
+        <v>144.9934242899254</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.367403507232666</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.249670344551595</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0.08627152442932129</v>
+      </c>
+      <c r="K45" t="n">
+        <v>12.72014499586319</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0.3067362308502197</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6415634406904194</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>0.5157845020294189</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.254524151098925</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.04445719718933105</v>
+      </c>
+      <c r="F46" t="n">
+        <v>69.21976644760659</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8045580387115479</v>
+      </c>
+      <c r="K46" t="n">
+        <v>14.84722719233409</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>0.147829532623291</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.476602565815561</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.285259485244751</v>
+      </c>
+      <c r="U46" t="n">
+        <v>13.54211845221049</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9180288314819336</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.32039161497972</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.6282978057861328</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.60556079345764</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>0.4057703018188477</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.07995927133997013</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>0.7984442710876465</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.670755937914818</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2.429258823394775</v>
+      </c>
+      <c r="F48" t="n">
+        <v>70.13275337146688</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>2.065419673919678</v>
+      </c>
+      <c r="K48" t="n">
+        <v>70.25457400507099</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>1.381365060806274</v>
+      </c>
+      <c r="P48" t="n">
+        <v>32.85760001944407</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>1.340499877929688</v>
+      </c>
+      <c r="U48" t="n">
+        <v>68.78964949759879</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
